--- a/HSBC India Daywise schedule_v1.xlsx
+++ b/HSBC India Daywise schedule_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishal/Documents/HTT-Spring-Microservices-AWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B341B0-5B2D-0E4E-A314-9829E6051CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2ADE20-0C41-034B-89E5-C6564B837339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="25600" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daywise schedule_India" sheetId="8" r:id="rId1"/>
@@ -374,12 +374,6 @@
     <t>12:00PM</t>
   </si>
   <si>
-    <t>Spring Cloud and Netflix Eureka
-Registration and Discovery
-Spring Load Balancer
-Introducing Spring Cloud Gateway</t>
-  </si>
-  <si>
     <t>Build Planes Service with its functionalities</t>
   </si>
   <si>
@@ -668,6 +662,24 @@
         <family val="2"/>
       </rPr>
       <t>Swagger documentation format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring Cloud and Netflix Eureka
+Registration and Discovery
+Spring Load Balancer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Introducing Spring Cloud Gateway</t>
     </r>
   </si>
 </sst>
@@ -836,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1108,13 +1120,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1133,112 +1247,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1577,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="150" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E94" zoomScale="150" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
@@ -1630,56 +1648,56 @@
         <v>71</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="110" customFormat="1" ht="104" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="98" customFormat="1" ht="104" x14ac:dyDescent="0.2">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
-    </row>
-    <row r="3" spans="1:12" s="120" customFormat="1" ht="156" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
+    </row>
+    <row r="3" spans="1:12" s="108" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="114">
+      <c r="F3" s="102">
         <v>0.3125</v>
       </c>
-      <c r="G3" s="114">
+      <c r="G3" s="102">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119" t="s">
+      <c r="I3" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="107" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1724,44 +1742,44 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
-      <c r="K5" s="91" t="s">
-        <v>134</v>
+      <c r="K5" s="126" t="s">
+        <v>133</v>
       </c>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12" s="110" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="121" t="s">
+    <row r="6" spans="1:12" s="98" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="123">
+      <c r="D6" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="111">
         <v>44781</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="112">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="113">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="126" t="s">
+      <c r="I6" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="126" t="s">
+      <c r="J6" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="109"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="97"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -1790,40 +1808,40 @@
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="91"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" s="110" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+    <row r="8" spans="1:12" s="98" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="122" t="s">
+      <c r="B8" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="123">
+      <c r="D8" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="111">
         <v>44781</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="112">
         <v>0.57291666666666663</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="113">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H8" s="127" t="s">
+      <c r="H8" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="121"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="109"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -1852,7 +1870,7 @@
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
-      <c r="K9" s="91"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1891,19 +1909,19 @@
       <c r="G11" s="20">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H11" s="129" t="s">
+      <c r="H11" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="95" t="s">
+      <c r="I11" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="129" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1929,13 +1947,13 @@
       <c r="G12" s="20">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="94"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="95"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="129"/>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
@@ -1962,10 +1980,10 @@
       <c r="H13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="55"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="95"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="129"/>
     </row>
     <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -1989,15 +2007,15 @@
       <c r="G14" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="95"/>
+        <v>118</v>
+      </c>
+      <c r="K14" s="133"/>
+      <c r="L14" s="129"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
@@ -2034,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>21</v>
@@ -2052,7 +2070,7 @@
         <v>0.8125</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="55"/>
       <c r="J16" s="54"/>
@@ -2095,15 +2113,15 @@
       <c r="G18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="96" t="s">
-        <v>151</v>
+      <c r="I18" s="130" t="s">
+        <v>150</v>
       </c>
       <c r="J18" s="55"/>
-      <c r="K18" s="92" t="s">
-        <v>134</v>
+      <c r="K18" s="133" t="s">
+        <v>133</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -2132,9 +2150,9 @@
       <c r="H19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="97"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="92"/>
+      <c r="K19" s="133"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.2">
@@ -2159,12 +2177,12 @@
       <c r="G20" s="20">
         <v>0.73958333333333337</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="97"/>
+      <c r="I20" s="131"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="92"/>
+      <c r="K20" s="133"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.2">
@@ -2192,11 +2210,11 @@
       <c r="H21" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="92"/>
+      <c r="K21" s="133"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2218,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>8</v>
@@ -2236,7 +2254,7 @@
         <v>0.375</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2272,8 +2290,8 @@
         <v>85</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24" s="91" t="s">
-        <v>134</v>
+      <c r="K24" s="126" t="s">
+        <v>133</v>
       </c>
       <c r="L24" s="17"/>
     </row>
@@ -2303,12 +2321,12 @@
         <v>83</v>
       </c>
       <c r="I25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="91"/>
+      <c r="K25" s="126"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="12" x14ac:dyDescent="0.2">
@@ -2338,7 +2356,7 @@
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="91"/>
+      <c r="K26" s="126"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -2367,12 +2385,12 @@
         <v>83</v>
       </c>
       <c r="I27" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="J27" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="91"/>
+      <c r="K27" s="126"/>
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="12" x14ac:dyDescent="0.2">
@@ -2445,11 +2463,11 @@
         <v>83</v>
       </c>
       <c r="I30" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="54"/>
-      <c r="K30" s="91" t="s">
-        <v>134</v>
+      <c r="K30" s="126" t="s">
+        <v>133</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2477,12 +2495,12 @@
         <v>83</v>
       </c>
       <c r="I31" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="91"/>
+      <c r="K31" s="126"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2512,7 +2530,7 @@
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="54"/>
-      <c r="K32" s="91"/>
+      <c r="K32" s="126"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.2">
@@ -2541,12 +2559,12 @@
         <v>83</v>
       </c>
       <c r="I33" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="91"/>
+      <c r="K33" s="126"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2584,7 +2602,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>26</v>
@@ -2602,7 +2620,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -2717,137 +2735,137 @@
       <c r="K40" s="87"/>
       <c r="L40" s="17"/>
     </row>
-    <row r="41" spans="1:12" ht="84" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:12" s="98" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A41" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="111">
         <v>44789</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="113">
         <v>0.5</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="109"/>
+      <c r="K41" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="109"/>
+    </row>
+    <row r="42" spans="1:12" s="98" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A42" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="111">
+        <v>44789</v>
+      </c>
+      <c r="F42" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="J42" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" s="136"/>
+      <c r="L42" s="109"/>
+    </row>
+    <row r="43" spans="1:12" s="98" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A43" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="B43" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D43" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="111">
         <v>44789</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="34" t="s">
+      <c r="F43" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="109"/>
+    </row>
+    <row r="44" spans="1:12" s="98" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A44" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="111">
+        <v>44789</v>
+      </c>
+      <c r="F44" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="I42" s="54" t="s">
+      <c r="I44" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" s="91"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="19">
-        <v>44789</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="19">
-        <v>44789</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="J44" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44" s="91"/>
-      <c r="L44" s="17"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="109"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
@@ -2870,7 +2888,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>21</v>
@@ -2888,7 +2906,7 @@
         <v>70</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -2909,41 +2927,41 @@
       <c r="K47" s="87"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="1:12" s="110" customFormat="1" ht="108" x14ac:dyDescent="0.2">
-      <c r="A48" s="121" t="s">
+    <row r="48" spans="1:12" s="98" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+      <c r="A48" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="122" t="s">
+      <c r="B48" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="123">
+      <c r="D48" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="111">
         <v>44790</v>
       </c>
-      <c r="F48" s="125" t="s">
+      <c r="F48" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="131" t="s">
+      <c r="G48" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="128" t="s">
+      <c r="H48" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="L48" s="121"/>
+      <c r="K48" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="109"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
@@ -2972,7 +2990,7 @@
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="32"/>
-      <c r="K49" s="92"/>
+      <c r="K49" s="133"/>
       <c r="L49" s="17"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
@@ -2997,14 +3015,14 @@
       <c r="G50" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="I50" s="126" t="s">
-        <v>97</v>
+      <c r="H50" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="114" t="s">
+        <v>96</v>
       </c>
       <c r="J50" s="17"/>
-      <c r="K50" s="92"/>
+      <c r="K50" s="133"/>
       <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.2">
@@ -3029,16 +3047,16 @@
       <c r="G51" s="20">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H51" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="I51" s="126" t="s">
+      <c r="H51" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="J51" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J51" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="K51" s="92"/>
+      <c r="K51" s="133"/>
       <c r="L51" s="17"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3062,7 +3080,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>23</v>
@@ -3080,7 +3098,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="54"/>
@@ -3106,7 +3124,7 @@
         <v>35</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>8</v>
@@ -3124,7 +3142,7 @@
         <v>0.375</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -3153,15 +3171,15 @@
       <c r="G56" s="14">
         <v>0.5</v>
       </c>
-      <c r="H56" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="I56" s="133" t="s">
-        <v>99</v>
+      <c r="H56" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="121" t="s">
+        <v>98</v>
       </c>
       <c r="J56" s="64"/>
-      <c r="K56" s="102" t="s">
-        <v>134</v>
+      <c r="K56" s="125" t="s">
+        <v>133</v>
       </c>
       <c r="L56" s="64"/>
     </row>
@@ -3188,15 +3206,15 @@
         <v>17</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I57" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="J57" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="K57" s="91"/>
+      <c r="K57" s="126"/>
       <c r="L57" s="64"/>
     </row>
     <row r="58" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.2">
@@ -3226,7 +3244,7 @@
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="91"/>
+      <c r="K58" s="126"/>
       <c r="L58" s="64"/>
     </row>
     <row r="59" spans="1:12" s="66" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -3252,15 +3270,15 @@
         <v>68</v>
       </c>
       <c r="H59" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="67" t="s">
+      <c r="J59" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="K59" s="91"/>
+      <c r="K59" s="126"/>
       <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3298,7 +3316,7 @@
         <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>26</v>
@@ -3316,7 +3334,7 @@
         <v>0.3125</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -3346,14 +3364,14 @@
         <v>67</v>
       </c>
       <c r="H63" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J63" s="12"/>
-      <c r="K63" s="102" t="s">
-        <v>134</v>
+      <c r="K63" s="125" t="s">
+        <v>133</v>
       </c>
       <c r="L63" s="12"/>
     </row>
@@ -3370,15 +3388,15 @@
         <v>17</v>
       </c>
       <c r="H64" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K64" s="91"/>
+        <v>104</v>
+      </c>
+      <c r="K64" s="126"/>
       <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -3408,7 +3426,7 @@
       </c>
       <c r="I65" s="70"/>
       <c r="J65" s="70"/>
-      <c r="K65" s="91"/>
+      <c r="K65" s="126"/>
       <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.2">
@@ -3434,15 +3452,15 @@
         <v>0.75</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="K66" s="126"/>
+      <c r="L66" s="72" t="s">
         <v>106</v>
-      </c>
-      <c r="K66" s="91"/>
-      <c r="L66" s="72" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3541,7 +3559,7 @@
       <c r="K71" s="83"/>
       <c r="L71" s="17"/>
     </row>
-    <row r="72" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>37</v>
       </c>
@@ -3564,20 +3582,20 @@
         <v>86</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K72" s="102" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="K72" s="125" t="s">
+        <v>133</v>
       </c>
       <c r="L72" s="17"/>
     </row>
-    <row r="73" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>37</v>
       </c>
@@ -3600,15 +3618,15 @@
         <v>17</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K73" s="102"/>
+        <v>107</v>
+      </c>
+      <c r="K73" s="125"/>
       <c r="L73" s="17"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3638,7 +3656,7 @@
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="102"/>
+      <c r="K74" s="125"/>
       <c r="L74" s="17"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3663,15 +3681,15 @@
       <c r="G75" s="20">
         <v>0.65625</v>
       </c>
-      <c r="H75" s="127" t="s">
-        <v>125</v>
+      <c r="H75" s="115" t="s">
+        <v>124</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K75" s="102"/>
-      <c r="L75" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="K75" s="125"/>
+      <c r="L75" s="132"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
@@ -3695,15 +3713,15 @@
       <c r="G76" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="127" t="s">
-        <v>126</v>
+      <c r="H76" s="115" t="s">
+        <v>125</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K76" s="102"/>
-      <c r="L76" s="98"/>
+        <v>104</v>
+      </c>
+      <c r="K76" s="125"/>
+      <c r="L76" s="132"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
@@ -3718,8 +3736,8 @@
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="98"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="132"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="24"/>
@@ -3735,7 +3753,7 @@
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="83"/>
-      <c r="L78" s="98"/>
+      <c r="L78" s="132"/>
     </row>
     <row r="79" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
@@ -3760,18 +3778,18 @@
         <v>67</v>
       </c>
       <c r="H79" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I79" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J79" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="J79" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K79" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="L79" s="98"/>
+      <c r="K79" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="L79" s="132"/>
     </row>
     <row r="80" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
@@ -3796,16 +3814,16 @@
         <v>17</v>
       </c>
       <c r="H80" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I80" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J80" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="J80" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K80" s="91"/>
-      <c r="L80" s="98"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="132"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
@@ -3832,10 +3850,10 @@
       <c r="H81" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="91"/>
-      <c r="L81" s="98"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="126"/>
+      <c r="L81" s="132"/>
     </row>
     <row r="82" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
@@ -3860,23 +3878,23 @@
         <v>65</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I82" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J82" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="J82" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K82" s="91"/>
-      <c r="L82" s="98"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="132"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>21</v>
@@ -3894,12 +3912,12 @@
         <v>70</v>
       </c>
       <c r="H83" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="98"/>
+      <c r="K83" s="126"/>
+      <c r="L83" s="132"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
@@ -3915,7 +3933,7 @@
       <c r="I84" s="32"/>
       <c r="J84" s="32"/>
       <c r="K84" s="73"/>
-      <c r="L84" s="98"/>
+      <c r="L84" s="132"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
@@ -3931,7 +3949,7 @@
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="83"/>
-      <c r="L85" s="98"/>
+      <c r="L85" s="132"/>
     </row>
     <row r="86" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
@@ -3956,18 +3974,18 @@
         <v>67</v>
       </c>
       <c r="H86" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I86" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J86" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="J86" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K86" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="L86" s="98"/>
+      <c r="K86" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="L86" s="132"/>
     </row>
     <row r="87" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
@@ -3992,16 +4010,16 @@
         <v>17</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I87" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I87" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J87" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="J87" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K87" s="91"/>
-      <c r="L87" s="98"/>
+      <c r="K87" s="126"/>
+      <c r="L87" s="132"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
@@ -4028,10 +4046,10 @@
       <c r="H88" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="98"/>
+      <c r="I88" s="115"/>
+      <c r="J88" s="115"/>
+      <c r="K88" s="126"/>
+      <c r="L88" s="132"/>
     </row>
     <row r="89" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
@@ -4056,16 +4074,16 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="H89" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="I89" s="126" t="s">
-        <v>104</v>
-      </c>
-      <c r="J89" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="K89" s="91"/>
-      <c r="L89" s="98"/>
+        <v>126</v>
+      </c>
+      <c r="I89" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J89" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" s="126"/>
+      <c r="L89" s="132"/>
     </row>
     <row r="90" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
@@ -4080,8 +4098,8 @@
       </c>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
-      <c r="K90" s="91"/>
-      <c r="L90" s="98"/>
+      <c r="K90" s="126"/>
+      <c r="L90" s="132"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
@@ -4095,14 +4113,14 @@
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="83"/>
-      <c r="L91" s="98"/>
+      <c r="L91" s="132"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>8</v>
@@ -4120,14 +4138,14 @@
         <v>0.375</v>
       </c>
       <c r="H92" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
-      <c r="K92" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="L92" s="98"/>
+      <c r="K92" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="L92" s="132"/>
     </row>
     <row r="93" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
@@ -4152,14 +4170,14 @@
         <v>67</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I93" s="126" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="I93" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="J93" s="21"/>
-      <c r="K93" s="100"/>
-      <c r="L93" s="98"/>
+      <c r="K93" s="124"/>
+      <c r="L93" s="132"/>
     </row>
     <row r="94" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
@@ -4184,16 +4202,16 @@
         <v>17</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I94" s="126" t="s">
-        <v>128</v>
-      </c>
-      <c r="J94" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K94" s="100"/>
-      <c r="L94" s="98"/>
+        <v>110</v>
+      </c>
+      <c r="I94" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="J94" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="K94" s="124"/>
+      <c r="L94" s="132"/>
     </row>
     <row r="95" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
@@ -4221,9 +4239,9 @@
         <v>19</v>
       </c>
       <c r="I95" s="21"/>
-      <c r="J95" s="126"/>
-      <c r="K95" s="100"/>
-      <c r="L95" s="98"/>
+      <c r="J95" s="114"/>
+      <c r="K95" s="124"/>
+      <c r="L95" s="132"/>
     </row>
     <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
@@ -4248,16 +4266,16 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I96" s="21"/>
-      <c r="J96" s="134" t="s">
-        <v>129</v>
-      </c>
-      <c r="K96" s="100"/>
-      <c r="L96" s="98"/>
+      <c r="J96" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="K96" s="124"/>
+      <c r="L96" s="132"/>
       <c r="N96" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -4273,7 +4291,7 @@
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
-      <c r="K97" s="100"/>
+      <c r="K97" s="124"/>
       <c r="L97" s="17"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -4327,17 +4345,17 @@
         <v>67</v>
       </c>
       <c r="H100" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I100" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I100" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="J100" s="21"/>
-      <c r="K100" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="L100" s="95" t="s">
-        <v>112</v>
+      <c r="K100" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="L100" s="129" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -4367,8 +4385,8 @@
       </c>
       <c r="I101" s="21"/>
       <c r="J101" s="32"/>
-      <c r="K101" s="101"/>
-      <c r="L101" s="95"/>
+      <c r="K101" s="134"/>
+      <c r="L101" s="129"/>
     </row>
     <row r="102" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
@@ -4393,23 +4411,23 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H102" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I102" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I102" s="21" t="s">
+      <c r="J102" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="J102" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K102" s="101"/>
-      <c r="L102" s="95"/>
+      <c r="K102" s="134"/>
+      <c r="L102" s="129"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>26</v>
@@ -4427,12 +4445,12 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
       <c r="K103" s="85"/>
-      <c r="L103" s="95"/>
+      <c r="L103" s="129"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="17"/>
@@ -4592,13 +4610,13 @@
         <v>55</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K111" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L111" s="12"/>
     </row>
@@ -4655,13 +4673,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H113" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I113" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="21" t="s">
+      <c r="J113" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="J113" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="K113" s="74"/>
       <c r="L113" s="12"/>
@@ -4671,7 +4689,7 @@
         <v>43</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>21</v>
@@ -4689,7 +4707,7 @@
         <v>0.8125</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J114" s="21"/>
       <c r="K114" s="74"/>
@@ -4753,8 +4771,8 @@
         <v>56</v>
       </c>
       <c r="J117" s="17"/>
-      <c r="K117" s="102" t="s">
-        <v>134</v>
+      <c r="K117" s="125" t="s">
+        <v>133</v>
       </c>
       <c r="L117" s="17"/>
     </row>
@@ -4785,7 +4803,7 @@
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="17"/>
-      <c r="K118" s="91"/>
+      <c r="K118" s="126"/>
       <c r="L118" s="17"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4817,7 +4835,7 @@
         <v>57</v>
       </c>
       <c r="J119" s="17"/>
-      <c r="K119" s="91"/>
+      <c r="K119" s="126"/>
       <c r="L119" s="17"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4843,11 +4861,11 @@
         <v>70</v>
       </c>
       <c r="H120" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="17"/>
-      <c r="K120" s="91"/>
+      <c r="K120" s="126"/>
       <c r="L120" s="17"/>
     </row>
     <row r="121" spans="1:12" ht="12" x14ac:dyDescent="0.2">
@@ -4909,8 +4927,8 @@
         <v>57</v>
       </c>
       <c r="J123" s="32"/>
-      <c r="K123" s="99" t="s">
-        <v>134</v>
+      <c r="K123" s="123" t="s">
+        <v>133</v>
       </c>
       <c r="L123" s="17"/>
     </row>
@@ -4941,7 +4959,7 @@
       </c>
       <c r="I124" s="32"/>
       <c r="J124" s="32"/>
-      <c r="K124" s="100"/>
+      <c r="K124" s="124"/>
       <c r="L124" s="17"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4973,7 +4991,7 @@
         <v>57</v>
       </c>
       <c r="J125" s="32"/>
-      <c r="K125" s="100"/>
+      <c r="K125" s="124"/>
       <c r="L125" s="17"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -5005,7 +5023,7 @@
         <v>57</v>
       </c>
       <c r="J126" s="32"/>
-      <c r="K126" s="100"/>
+      <c r="K126" s="124"/>
       <c r="L126" s="17"/>
     </row>
     <row r="127" spans="1:12" ht="12" x14ac:dyDescent="0.2">
@@ -5043,7 +5061,7 @@
         <v>46</v>
       </c>
       <c r="B129" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C129" s="51" t="s">
         <v>26</v>
@@ -5061,7 +5079,7 @@
         <v>0.3125</v>
       </c>
       <c r="H129" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I129" s="53"/>
       <c r="J129" s="53"/>
@@ -5096,7 +5114,7 @@
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
       <c r="K130" s="85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L130" s="17"/>
     </row>
@@ -5158,7 +5176,7 @@
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
       <c r="K132" s="85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L132" s="17"/>
     </row>
@@ -5209,7 +5227,7 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
@@ -5233,7 +5251,7 @@
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I136" s="32"/>
       <c r="J136" s="32"/>
@@ -5282,7 +5300,7 @@
       <c r="I138" s="32"/>
       <c r="J138" s="32"/>
       <c r="K138" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L138" s="17"/>
     </row>
@@ -5291,7 +5309,7 @@
         <v>48</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>10</v>
@@ -5309,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I139" s="32"/>
       <c r="J139" s="32"/>
@@ -5374,7 +5392,7 @@
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L142" s="17"/>
     </row>
@@ -5436,7 +5454,7 @@
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L144" s="17"/>
     </row>
@@ -5505,7 +5523,7 @@
         <v>50</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>21</v>
@@ -5523,7 +5541,7 @@
         <v>0.875</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I148" s="16"/>
       <c r="J148" s="16"/>
@@ -5576,13 +5594,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K72:K77"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K30:K33"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="I18:I21"/>
@@ -5592,11 +5608,13 @@
     <mergeCell ref="K48:K51"/>
     <mergeCell ref="K92:K97"/>
     <mergeCell ref="K100:K102"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K72:K77"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="K86:K90"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="https://www.linkedin.com/learning/paths/become-a-spring-developer?u=2146730" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
